--- a/data-dml/mosip_master/dml/master-template_type.xlsx
+++ b/data-dml/mosip_master/dml/master-template_type.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip\mosip-ref-impl\data-dml\mosip_master\dml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1030448\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5381152-4E05-41CB-8B12-E8F60704AF9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="master-template_type" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="294">
   <si>
     <t>code</t>
   </si>
@@ -867,6 +866,42 @@
   </si>
   <si>
     <t>Registration Consent Template</t>
+  </si>
+  <si>
+    <t>RPR_DUP_UIN_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>RPR_TEC_ISSUE_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>RPR_UIN_REAC_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>RPR_UIN_DEAC_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>RPR_UIN_GEN_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>RPR_UIN_UPD_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>UIN Details Updated</t>
+  </si>
+  <si>
+    <t>UIN Generated</t>
+  </si>
+  <si>
+    <t>Uin is deactivated</t>
+  </si>
+  <si>
+    <t>Uin is activated successfully</t>
+  </si>
+  <si>
+    <t>Re-Register because there was a Technical Issue</t>
+  </si>
+  <si>
+    <t>Registration Failed because you have already Registered</t>
   </si>
 </sst>
 </file>
@@ -1710,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4522,7 +4557,128 @@
         <v>10</v>
       </c>
     </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>282</v>
+      </c>
+      <c r="B141" t="s">
+        <v>293</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" t="b">
+        <v>1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>283</v>
+      </c>
+      <c r="B142" t="s">
+        <v>292</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" t="b">
+        <v>1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143" t="s">
+        <v>291</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" t="b">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>285</v>
+      </c>
+      <c r="B144" t="s">
+        <v>290</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" t="b">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>286</v>
+      </c>
+      <c r="B145" t="s">
+        <v>289</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" t="b">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>287</v>
+      </c>
+      <c r="B146" t="s">
+        <v>288</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" t="b">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data-dml/mosip_master/dml/master-template_type.xlsx
+++ b/data-dml/mosip_master/dml/master-template_type.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="296">
   <si>
     <t>code</t>
   </si>
@@ -902,6 +902,12 @@
   </si>
   <si>
     <t>Registration Failed because you have already Registered</t>
+  </si>
+  <si>
+    <t>RPR_PAUSED_FOR_ADDITIONAL_INFO_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Requesting the additional details for progressing on the application of UIN</t>
   </si>
 </sst>
 </file>
@@ -1745,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="F146" sqref="F146"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4677,6 +4683,26 @@
         <v>10</v>
       </c>
     </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>294</v>
+      </c>
+      <c r="B147" t="s">
+        <v>295</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" t="b">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
